--- a/biology/Médecine/Glipizide/Glipizide.xlsx
+++ b/biology/Médecine/Glipizide/Glipizide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le glipizide est une molécule de la famille des sulfonylurées. Il est utilisé comme médicament pour traiter le diabète de type 2.
@@ -512,7 +524,9 @@
           <t>Propriétés pharmacologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glipizide agit sur les cellules bêta du pancréas ce qui conduit à l'augmentation de l'insuline libérée par cet organe. Ceci permet de faire baisser la glycémie.
 </t>
@@ -543,7 +557,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les effets indésirables les plus fréquents sont :
 hypoglycémie ;
@@ -576,9 +592,11 @@
           <t>Spécialités contenant du glipizide</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médicaments contenant du glipizide commercialisés en France[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médicaments contenant du glipizide commercialisés en France :
 Glibenese® du laboratoire pharmaceutique Laphal ;
 Minidiab® du laboratoire pharmaceutique Flexpharma ;
 Ozidia® du laboratoire pharmaceutique Pfizer ;
